--- a/media/laporan/2025/07/laporan-pengiriman-barang-20250701-20250731.xlsx
+++ b/media/laporan/2025/07/laporan-pengiriman-barang-20250701-20250731.xlsx
@@ -749,7 +749,7 @@
         <v>980</v>
       </c>
       <c r="M11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13">
